--- a/Experimental_Stuff/Fotos_Turpin/Day2/laser_gaussian_thesis/Saturated/Sin_Positivo/EXCEL_FINAL_RESULTS_Reference_AND_Reference_WITH_iX_378_angles_deg_rel_satur_0.7.xlsx
+++ b/Experimental_Stuff/Fotos_Turpin/Day2/laser_gaussian_thesis/Saturated/Sin_Positivo/EXCEL_FINAL_RESULTS_Reference_AND_Reference_WITH_iX_378_angles_deg_rel_satur_0.7.xlsx
@@ -107,8 +107,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="1093960844012693174" xfId="1" hidden="0"/>
-    <cellStyle name="-6910215103535545435" xfId="2" hidden="0"/>
+    <cellStyle name="4477153811326100697" xfId="1" hidden="0"/>
+    <cellStyle name="6985850031578832" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,13 +481,15 @@
   <cols>
     <col width="12.6" customWidth="1" min="1" max="1"/>
     <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="26.1" customWidth="1" min="3" max="3"/>
+    <col width="24.3" customWidth="1" min="3" max="3"/>
     <col width="9.9" customWidth="1" min="4" max="4"/>
     <col width="20.7" customWidth="1" min="5" max="5"/>
-    <col width="24.3" customWidth="1" min="6" max="6"/>
-    <col width="24.3" customWidth="1" min="7" max="7"/>
-    <col width="24.3" customWidth="1" min="8" max="8"/>
-    <col width="24.3" customWidth="1" min="9" max="9"/>
+    <col width="25.2" customWidth="1" min="6" max="6"/>
+    <col width="25.2" customWidth="1" min="7" max="7"/>
+    <col width="25.2" customWidth="1" min="8" max="8"/>
+    <col width="25.2" customWidth="1" min="9" max="9"/>
+    <col width="25.2" customWidth="1" min="10" max="10"/>
+    <col width="25.2" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="50" customHeight="1">
@@ -536,6 +538,16 @@
           <t>rotation_quad</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>simulation_fibo</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>simulation_quad</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -547,7 +559,7 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.124595010314</v>
+        <v>9.857185934399</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -558,16 +570,22 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.585046299121</v>
+        <v>19.320488318189</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>9.585046299121</v>
+        <v>19.320488318189</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>9.585046299121</v>
+        <v>19.320488318189</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>9.574595010314001</v>
+        <v>19.307185934399</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>20.251135973119</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>19.325293471968</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +598,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.124595010314</v>
+        <v>9.857185934399</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -591,16 +609,22 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.585046299121</v>
+        <v>19.320488318189</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>9.585046299121</v>
+        <v>19.320488318189</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>9.585046299121</v>
+        <v>19.320488318189</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>9.574595010314001</v>
+        <v>19.307185934399</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>20.251135973119</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>19.325293471968</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,7 +649,7 @@
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="41.4" customWidth="1" min="2" max="2"/>
     <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="16.2" customWidth="1" min="4" max="4"/>
+    <col width="22.5" customWidth="1" min="4" max="4"/>
     <col width="17.1" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="15.3" customWidth="1" min="7" max="7"/>
@@ -693,10 +717,10 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-0.63427997205</v>
+        <v>-0.6425421784999999</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.1e-09</v>
+        <v>1e-08</v>
       </c>
     </row>
     <row r="3">
@@ -724,10 +748,10 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-0.63427997205</v>
+        <v>-0.6425421784999999</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.1e-09</v>
+        <v>1e-08</v>
       </c>
     </row>
     <row r="4">
@@ -755,10 +779,10 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-0.634442720862</v>
+        <v>-0.64254708268</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.6e-11</v>
+        <v>6.3e-10</v>
       </c>
     </row>
     <row r="5">
@@ -786,10 +810,10 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-0.634442720862</v>
+        <v>-0.64254708268</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.6e-11</v>
+        <v>6.3e-10</v>
       </c>
     </row>
     <row r="6">
@@ -817,10 +841,10 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-0.634442720862</v>
+        <v>-0.64254708268</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.6e-11</v>
+        <v>6.3e-10</v>
       </c>
     </row>
     <row r="7">
@@ -848,10 +872,10 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-0.634442720862</v>
+        <v>-0.64254708268</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.6e-11</v>
+        <v>6.3e-10</v>
       </c>
     </row>
     <row r="8">
@@ -879,10 +903,10 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-0.634442720862</v>
+        <v>-0.64254708268</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.6e-11</v>
+        <v>6.3e-10</v>
       </c>
     </row>
     <row r="9">
@@ -910,19 +934,19 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-0.634442720862</v>
+        <v>-0.64254708268</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.6e-11</v>
+        <v>6.3e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>iX_378_sin_el_positivo.png.png</t>
+          <t>iX_378_sin_los_dos_solo_tubo.png.png</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -932,7 +956,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Rotation</t>
+          <t>Simulation_Grid</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -941,19 +965,19 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-0.3000635571</v>
+        <v>-0.65234</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.6e-09</v>
+        <v>0.00067</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>AVERAGE_Problem</t>
+          <t>AVERAGE_Reference</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -963,7 +987,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Rotation</t>
+          <t>Simulation_Grid</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -972,19 +996,19 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-0.3000635571</v>
+        <v>-0.65234</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.6e-09</v>
+        <v>0.00067</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>iX_378_sin_el_positivo.png.png</t>
+          <t>iX_378_sin_los_dos_solo_tubo.png.png</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -994,7 +1018,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Rotation</t>
+          <t>Simulation_Grid</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1003,19 +1027,19 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-0.29986148711</v>
+        <v>-0.668552</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.2e-11</v>
+        <v>1.4e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>AVERAGE_Problem</t>
+          <t>AVERAGE_Reference</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1025,7 +1049,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Rotation</t>
+          <t>Simulation_Grid</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1034,10 +1058,10 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-0.29986148711</v>
+        <v>-0.668552</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.2e-11</v>
+        <v>1.4e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1056,7 +1080,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Mirror</t>
+          <t>Rotation</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1065,10 +1089,10 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-0.29986148711</v>
+        <v>-0.30556821465</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.2e-11</v>
+        <v>7.3e-09</v>
       </c>
     </row>
     <row r="15">
@@ -1087,7 +1111,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Mirror</t>
+          <t>Rotation</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1096,10 +1120,10 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-0.29986148711</v>
+        <v>-0.30556821465</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.2e-11</v>
+        <v>7.3e-09</v>
       </c>
     </row>
     <row r="16">
@@ -1118,7 +1142,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Mirror</t>
+          <t>Rotation</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1127,10 +1151,10 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-0.29986148711</v>
+        <v>-0.305340948434</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.2e-11</v>
+        <v>2.8e-11</v>
       </c>
     </row>
     <row r="17">
@@ -1149,19 +1173,267 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>Rotation</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Fibonacci</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-0.305340948434</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>2.8e-11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>iX_378_sin_el_positivo.png.png</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Mirror</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Quadratic</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-0.305340948434</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>2.8e-11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>AVERAGE_Problem</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Mirror</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Quadratic</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-0.305340948434</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>2.8e-11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>iX_378_sin_el_positivo.png.png</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Mirror</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Fibonacci</t>
         </is>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>-0.29986148711</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>5.2e-11</v>
+      <c r="F20" s="2" t="n">
+        <v>-0.305340948434</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>2.8e-11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>AVERAGE_Problem</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Mirror</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Fibonacci</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-0.305340948434</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>2.8e-11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>iX_378_sin_el_positivo.png.png</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Simulation_Grid</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Quadratic</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-0.31505</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0.00043</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>AVERAGE_Problem</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Simulation_Grid</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Quadratic</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>-0.31505</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0.00043</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>iX_378_sin_el_positivo.png.png</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Simulation_Grid</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Fibonacci</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>-0.315103</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>2.4e-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>AVERAGE_Problem</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Simulation_Grid</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Fibonacci</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>-0.315103</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>2.4e-05</v>
       </c>
     </row>
   </sheetData>
